--- a/src/main/resources/ドキュメント/基本設計書/ログイン画面.xlsx
+++ b/src/main/resources/ドキュメント/基本設計書/ログイン画面.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y22" activeCellId="0" sqref="Y22"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1454,7 +1454,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="21" t="str">
         <f aca="false">TEXT(VLOOKUP(1, $A$7:$C$50,3,0) ,"YYYY/MM/DD")</f>
-        <v>2023/12/29</v>
+        <v>2024/01/01</v>
       </c>
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
@@ -1477,7 +1477,9 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="D2" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -1684,7 +1686,7 @@
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="str">
         <f aca="true">IF($G7&lt;&gt;"",TEXT(NOW(),"YYYY/MM/DD"),"")</f>
-        <v>2023/12/29</v>
+        <v>2024/01/01</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -1776,7 +1778,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="n">
         <f aca="true">IF(G9&lt;&gt;"",NOW(),"")</f>
-        <v>45289.8476501326</v>
+        <v>45292.9777759397</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1820,9 +1822,9 @@
         <v/>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="25" t="str">
-        <f aca="true">IF(G10&lt;&gt;"",NOW(),"")</f>
-        <v/>
+      <c r="C10" s="25" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45292</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -1985,7 +1987,7 @@
       <c r="B14" s="24"/>
       <c r="C14" s="25" t="n">
         <f aca="true">IF(G14&lt;&gt;"",NOW(),"")</f>
-        <v>45289.8476501328</v>
+        <v>45292.9777759398</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -2109,7 +2111,7 @@
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="n">
         <f aca="true">IF(G17&lt;&gt;"",NOW(),"")</f>
-        <v>45289.8476501329</v>
+        <v>45292.9777759398</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -3823,7 +3825,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="21" t="str">
         <f aca="false">改修履歴!U1</f>
-        <v>2023/12/29</v>
+        <v>2024/01/01</v>
       </c>
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
@@ -4285,7 +4287,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="21" t="str">
         <f aca="false">改修履歴!U1</f>
-        <v>2023/12/29</v>
+        <v>2024/01/01</v>
       </c>
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
@@ -4746,7 +4748,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="21" t="str">
         <f aca="false">改修履歴!U1</f>
-        <v>2023/12/29</v>
+        <v>2024/01/01</v>
       </c>
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
